--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Murodil/Downloads/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>username</t>
   </si>
@@ -190,12 +190,19 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -580,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -597,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -614,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -631,7 +638,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -648,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,7 +672,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -682,7 +689,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -699,7 +706,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -716,7 +723,7 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -733,7 +740,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -750,7 +757,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,7 +774,7 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,7 +791,7 @@
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,7 +808,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -818,7 +825,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Murodil/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayidimrannazari/IdeaProjects/CucumberProjectB24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853B064B-C0EA-B344-8EC3-426B28EA3AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84477C-6CB0-664F-A458-F56F81AAF580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{47319A83-4017-A548-AEBB-A2F2B1387863}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="27240" windowHeight="16420" xr2:uid="{47319A83-4017-A548-AEBB-A2F2B1387863}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>username</t>
   </si>
@@ -184,25 +184,12 @@
   </si>
   <si>
     <t>Thompson</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -548,15 +535,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45CC427-CF7F-3D44-80B5-6A431C042EC8}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,11 +556,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -586,11 +570,8 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -603,11 +584,8 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -620,11 +598,8 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -637,11 +612,8 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -654,11 +626,8 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -671,11 +640,8 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -688,11 +654,8 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -705,11 +668,8 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -722,11 +682,8 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -739,11 +696,8 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -756,11 +710,8 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -773,11 +724,8 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -790,11 +738,8 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -807,11 +752,8 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -823,9 +765,6 @@
       </c>
       <c r="D16" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/VyTrackQa2Users.xlsx
+++ b/VyTrackQa2Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sayidimrannazari/IdeaProjects/CucumberProjectB24/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>username</t>
   </si>
@@ -184,12 +184,19 @@
   </si>
   <si>
     <t>Thompson</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -535,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45CC427-CF7F-3D44-80B5-6A431C042EC8}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -570,6 +577,9 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -584,6 +594,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -598,6 +611,9 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -612,6 +628,9 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -626,6 +645,9 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -640,6 +662,9 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -654,6 +679,9 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -668,6 +696,9 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -682,6 +713,9 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -696,6 +730,9 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -710,6 +747,9 @@
       <c r="D12" t="s">
         <v>37</v>
       </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -724,6 +764,9 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -738,6 +781,9 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -751,6 +797,9 @@
       </c>
       <c r="D15" t="s">
         <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
